--- a/Redes Neuronales/entrenamiento dataset.xlsx
+++ b/Redes Neuronales/entrenamiento dataset.xlsx
@@ -41,7 +41,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -52,6 +52,10 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -68,7 +72,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -77,6 +81,12 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1335,44 +1345,264 @@
       </c>
     </row>
     <row r="41">
-      <c r="C41" s="2"/>
-      <c r="E41" s="2"/>
+      <c r="A41" s="3">
+        <v>219.0</v>
+      </c>
+      <c r="B41" s="3">
+        <v>1841.0</v>
+      </c>
+      <c r="C41" s="4">
+        <v>2.65039168251569E16</v>
+      </c>
+      <c r="D41" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E41" s="4">
+        <v>8.99025321703102E14</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="42">
-      <c r="C42" s="2"/>
-      <c r="E42" s="2"/>
+      <c r="A42" s="3">
+        <v>213.0</v>
+      </c>
+      <c r="B42" s="3">
+        <v>2169.0</v>
+      </c>
+      <c r="C42" s="4">
+        <v>3.26495134066081E16</v>
+      </c>
+      <c r="D42" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E42" s="4">
+        <v>1.40404439290095E16</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="43">
-      <c r="C43" s="2"/>
-      <c r="E43" s="2"/>
+      <c r="A43" s="3">
+        <v>145.0</v>
+      </c>
+      <c r="B43" s="3">
+        <v>2319.0</v>
+      </c>
+      <c r="C43" s="4">
+        <v>3.99314536570857E15</v>
+      </c>
+      <c r="D43" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E43" s="4">
+        <v>1.19002502019122E16</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="44">
-      <c r="C44" s="2"/>
-      <c r="E44" s="2"/>
+      <c r="A44" s="3">
+        <v>247.0</v>
+      </c>
+      <c r="B44" s="3">
+        <v>1373.0</v>
+      </c>
+      <c r="C44" s="4">
+        <v>3.38694553077344E16</v>
+      </c>
+      <c r="D44" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E44" s="4">
+        <v>1.19962205425051E16</v>
+      </c>
+      <c r="F44" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="45">
-      <c r="C45" s="2"/>
-      <c r="E45" s="2"/>
+      <c r="A45" s="3">
+        <v>144.0</v>
+      </c>
+      <c r="B45" s="3">
+        <v>1628.0</v>
+      </c>
+      <c r="C45" s="4">
+        <v>4.11795196634218E15</v>
+      </c>
+      <c r="D45" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E45" s="4">
+        <v>8.27720401557119E14</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G45" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="46">
-      <c r="C46" s="2"/>
-      <c r="E46" s="2"/>
+      <c r="A46" s="3">
+        <v>306.0</v>
+      </c>
+      <c r="B46" s="3">
+        <v>1952.0</v>
+      </c>
+      <c r="C46" s="4">
+        <v>2.3206261044469E16</v>
+      </c>
+      <c r="D46" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E46" s="4">
+        <v>1.25677864273688E16</v>
+      </c>
+      <c r="F46" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H46" s="3">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="47">
-      <c r="C47" s="2"/>
-      <c r="E47" s="2"/>
+      <c r="A47" s="3">
+        <v>228.0</v>
+      </c>
+      <c r="B47" s="3">
+        <v>2231.0</v>
+      </c>
+      <c r="C47" s="4">
+        <v>3.89414050173769E15</v>
+      </c>
+      <c r="D47" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E47" s="4">
+        <v>1.13606105544714E16</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="48">
-      <c r="C48" s="2"/>
-      <c r="E48" s="2"/>
+      <c r="A48" s="3">
+        <v>342.0</v>
+      </c>
+      <c r="B48" s="3">
+        <v>1463.0</v>
+      </c>
+      <c r="C48" s="4">
+        <v>2.05690783291785E16</v>
+      </c>
+      <c r="D48" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E48" s="4">
+        <v>7.40020273379709E15</v>
+      </c>
+      <c r="F48" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="49">
-      <c r="C49" s="2"/>
-      <c r="E49" s="2"/>
+      <c r="A49" s="3">
+        <v>354.0</v>
+      </c>
+      <c r="B49" s="3">
+        <v>821.0</v>
+      </c>
+      <c r="C49" s="4">
+        <v>4.35837497091583E16</v>
+      </c>
+      <c r="D49" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E49" s="4">
+        <v>6.60538822485256E15</v>
+      </c>
+      <c r="F49" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="50">
-      <c r="C50" s="2"/>
-      <c r="E50" s="2"/>
+      <c r="A50" s="3">
+        <v>399.0</v>
+      </c>
+      <c r="B50" s="3">
+        <v>2050.0</v>
+      </c>
+      <c r="C50" s="4">
+        <v>3.56246482916344E16</v>
+      </c>
+      <c r="D50" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E50" s="4">
+        <v>1.29639147451733E16</v>
+      </c>
+      <c r="F50" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G50" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H50" s="3">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="51">
       <c r="C51" s="2"/>
